--- a/SimpleTaskSystemCore/doc/负载测试.xlsx
+++ b/SimpleTaskSystemCore/doc/负载测试.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Docs\PL\Github\ABPPractise\SimpleTaskSystemCore\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F5369EFD-E290-41C6-BDFC-C60CB0333FC9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8D5C15D3-DB9D-43B5-BBF6-65D7AD83040F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21015" windowHeight="8880" xr2:uid="{C3CA5318-6468-4E48-9C36-FD3DA7C3D0BC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>总请求数</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -48,6 +48,10 @@
   </si>
   <si>
     <t>单机测试结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>群集测试结果</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -466,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E700B7AB-44A8-4530-88B6-12C118D314EF}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -638,102 +642,132 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B9">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="4">
-        <v>62.94</v>
-      </c>
-      <c r="D9" s="4">
-        <v>15.887</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10">
+      <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="4">
-        <v>67.150000000000006</v>
-      </c>
-      <c r="D10" s="4">
-        <v>14.891999999999999</v>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1000</v>
+      </c>
       <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>69.48</v>
+      </c>
+      <c r="D11">
+        <v>14.43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1000</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1000</v>
+      </c>
+      <c r="B13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>10000</v>
+      </c>
+      <c r="B14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4">
+        <v>69.709999999999994</v>
+      </c>
+      <c r="D18" s="4">
+        <v>14.346</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20">
         <v>3</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B12">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21">
         <v>4</v>
       </c>
-      <c r="C12" s="4">
-        <v>66.69</v>
-      </c>
-      <c r="D12" s="4">
-        <v>14.996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B13">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22">
         <v>5</v>
       </c>
-      <c r="C13" s="4">
-        <v>62.06</v>
-      </c>
-      <c r="D13" s="4">
-        <v>16.113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23">
         <v>6</v>
       </c>
-      <c r="C14" s="4">
-        <v>69.760000000000005</v>
-      </c>
-      <c r="D14" s="4">
-        <v>14.335000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24">
         <v>7</v>
       </c>
-      <c r="C15" s="4">
-        <v>71.58</v>
-      </c>
-      <c r="D15" s="4">
-        <v>13.971</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25">
         <v>8</v>
       </c>
-      <c r="C16" s="4">
-        <v>73.290000000000006</v>
-      </c>
-      <c r="D16" s="4">
-        <v>13.644</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C17" s="1">
-        <f>AVERAGE(C9:C16)</f>
-        <v>67.638571428571439</v>
-      </c>
-      <c r="D17" s="1">
-        <f>AVERAGE(D9:D16)</f>
-        <v>14.834000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C26" s="1">
+        <f>AVERAGE(C18:C25)</f>
+        <v>69.709999999999994</v>
+      </c>
+      <c r="D26" s="1">
+        <f>AVERAGE(D18:D25)</f>
+        <v>14.346</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/SimpleTaskSystemCore/doc/负载测试.xlsx
+++ b/SimpleTaskSystemCore/doc/负载测试.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Docs\PL\Github\ABPPractise\SimpleTaskSystemCore\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8D5C15D3-DB9D-43B5-BBF6-65D7AD83040F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A6F1D570-8660-4D84-BB16-327D11BDF910}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21015" windowHeight="8880" xr2:uid="{C3CA5318-6468-4E48-9C36-FD3DA7C3D0BC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>总请求数</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -51,7 +51,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>群集测试结果</t>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nginx测试结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nlb测试结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -470,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E700B7AB-44A8-4530-88B6-12C118D314EF}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection sqref="A1:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -643,7 +655,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -659,6 +674,18 @@
       <c r="D10" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="F10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -673,6 +700,18 @@
       <c r="D11">
         <v>14.43</v>
       </c>
+      <c r="F11">
+        <v>1000</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>56.53</v>
+      </c>
+      <c r="I11">
+        <v>17.73</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -681,7 +720,24 @@
       <c r="B12">
         <v>100</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>1000</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12" s="2">
+        <v>63.42</v>
+      </c>
+      <c r="I12">
+        <v>15.77</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -689,6 +745,24 @@
       </c>
       <c r="B13">
         <v>200</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>1000</v>
+      </c>
+      <c r="G13">
+        <v>200</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -698,75 +772,93 @@
       <c r="B14">
         <v>500</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18">
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>10000</v>
+      </c>
+      <c r="G14">
+        <v>500</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G17">
         <v>1</v>
       </c>
-      <c r="C18" s="4">
-        <v>69.709999999999994</v>
-      </c>
-      <c r="D18" s="4">
-        <v>14.346</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19">
+      <c r="H17" s="4">
+        <v>63.33</v>
+      </c>
+      <c r="I17" s="4">
+        <v>15.791</v>
+      </c>
+    </row>
+    <row r="18" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G18">
         <v>2</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20">
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G19">
         <v>3</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21">
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G20">
         <v>4</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22">
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G21">
         <v>5</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23">
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G22">
         <v>6</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24">
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G23">
         <v>7</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25">
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G24">
         <v>8</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C26" s="1">
-        <f>AVERAGE(C18:C25)</f>
-        <v>69.709999999999994</v>
-      </c>
-      <c r="D26" s="1">
-        <f>AVERAGE(D18:D25)</f>
-        <v>14.346</v>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H25" s="1">
+        <f>AVERAGE(H17:H24)</f>
+        <v>63.33</v>
+      </c>
+      <c r="I25" s="1">
+        <f>AVERAGE(I17:I24)</f>
+        <v>15.791</v>
       </c>
     </row>
   </sheetData>
